--- a/output/missing-values-alcohol.xlsx
+++ b/output/missing-values-alcohol.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -101,27 +104,66 @@
     <t xml:space="preserve">TSH0043</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0080</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0127</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0646</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0781</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0839</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0857</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0927</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1008</t>
   </si>
   <si>
@@ -458,6 +500,9 @@
     <t xml:space="preserve">TSH1322</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1358</t>
   </si>
   <si>
@@ -548,12 +593,6 @@
     <t xml:space="preserve">TSH1812</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH1822</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSH1838</t>
   </si>
   <si>
@@ -627,6 +666,78 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1965</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1235,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -1148,7 +1259,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -1160,7 +1271,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -1982,91 +2093,91 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B182"/>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B183"/>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B184"/>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B185"/>
     </row>
@@ -2237,6 +2348,228 @@
         <v>204</v>
       </c>
       <c r="B213"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>205</v>
+      </c>
+      <c r="B214"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>206</v>
+      </c>
+      <c r="B215"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>207</v>
+      </c>
+      <c r="B216"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>208</v>
+      </c>
+      <c r="B217"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>209</v>
+      </c>
+      <c r="B218"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>210</v>
+      </c>
+      <c r="B219"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>211</v>
+      </c>
+      <c r="B220"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>212</v>
+      </c>
+      <c r="B221"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>213</v>
+      </c>
+      <c r="B222"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>214</v>
+      </c>
+      <c r="B223"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>215</v>
+      </c>
+      <c r="B224"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>216</v>
+      </c>
+      <c r="B225"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>217</v>
+      </c>
+      <c r="B226"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>218</v>
+      </c>
+      <c r="B227"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>219</v>
+      </c>
+      <c r="B228"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>220</v>
+      </c>
+      <c r="B229"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>221</v>
+      </c>
+      <c r="B230"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>222</v>
+      </c>
+      <c r="B231"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>223</v>
+      </c>
+      <c r="B232"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>224</v>
+      </c>
+      <c r="B233"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>225</v>
+      </c>
+      <c r="B234"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>226</v>
+      </c>
+      <c r="B235"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>227</v>
+      </c>
+      <c r="B236"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>228</v>
+      </c>
+      <c r="B237"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>230</v>
+      </c>
+      <c r="B239"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>231</v>
+      </c>
+      <c r="B240"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>232</v>
+      </c>
+      <c r="B241"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>233</v>
+      </c>
+      <c r="B242"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>234</v>
+      </c>
+      <c r="B243"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>235</v>
+      </c>
+      <c r="B244"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>236</v>
+      </c>
+      <c r="B245"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>237</v>
+      </c>
+      <c r="B246"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>238</v>
+      </c>
+      <c r="B247"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>239</v>
+      </c>
+      <c r="B248"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>240</v>
+      </c>
+      <c r="B249"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>241</v>
+      </c>
+      <c r="B250"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
